--- a/documents/테이블 정의서.xlsx
+++ b/documents/테이블 정의서.xlsx
@@ -8,16 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\siat_final_project\XPOS-Manager\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA10D7D-D7EC-43AB-AAE6-6AC5E11D92EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B662C033-060B-43A0-82C3-975D112CA69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{23F431DE-E5DE-4A76-B807-59BB60D14234}"/>
+    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8964" xr2:uid="{23F431DE-E5DE-4A76-B807-59BB60D14234}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="멤버쉽 고객 구매 이력" sheetId="10" r:id="rId1"/>
+    <sheet name="멤버쉽 고객 기본 정보" sheetId="9" r:id="rId2"/>
+    <sheet name="물품별 구매자 기록" sheetId="8" r:id="rId3"/>
+    <sheet name="판매 이력" sheetId="5" r:id="rId4"/>
+    <sheet name="입고 신청 이력" sheetId="4" r:id="rId5"/>
+    <sheet name="재고 현황" sheetId="3" r:id="rId6"/>
+    <sheet name="모든 상품 기본 정보" sheetId="2" r:id="rId7"/>
+    <sheet name="직원 근무 기록" sheetId="7" r:id="rId8"/>
+    <sheet name="직원 급여 지급 기록" sheetId="6" r:id="rId9"/>
+    <sheet name="직원 기본 정보" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="165">
   <si>
     <t>테이블정의서</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -217,14 +222,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>item_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>물품 아이디</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ITEM_INFOS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -373,10 +370,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ITEM_ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>REQ_CNT</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -433,18 +426,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>판매량</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>NUMBER(2)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>판매 물품 아이디</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>월급</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -466,6 +451,259 @@
   </si>
   <si>
     <t>* 별도로 시급이 정해져있지 않은 경우에는 0으로 표시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPLOYEE_PAY_RECORDS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee_pay_records</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_DATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>급여 지급일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_VALUE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급 금액</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPLOYEE_WORK_LOGS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee_work_logs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>START_WORK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_WORK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>출근 시각</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴근 시각</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무 일지 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORK_LOG_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2022-01-01_000000001" 형식으로 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISCRIPTION</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무 상태</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 특별한 일 없이 출퇴근 했다면 "근무"
+* 연·월차 / 반차 사용 시 "휴가"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 물품 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 개수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALES_CONSUMERS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales_consumers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSUMER_GENDER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSUMER_AGE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSUMER_CLOTHES</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자 성별</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자 나이대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자 복장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 남자는 "m", 여자는 "f"
+* 판별이 불가하면 "-"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 10대 / 20대 / 30대 등 간단하게만 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* "외출복", "정장", "운동복", "잠옷", "편한옷" 등으로 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBERSHIP_CUSTOMERS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberShip_customers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUSTOMER_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUSTOMER_NAME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUSTOMER_BIRTH_DATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUSTOMER_PHONE_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버쉽 고객 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 이름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 생년월일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 연락처</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUSTOMER_GENDER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 성별</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 남자는 "m", 여자는 "f"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 휴대전화가 없으면 멤버쉽 가입 불가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 소지 포인트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 최초 가입 시 0으로 초기화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYMENT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 수단</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 현금 결제는 "현금"
+* 신용 및 체크카드 결제는 "카드"
+* 교통카드 결제는 "교통카드"
+* 삼성페이 등의 모바일 결제는 "모바일"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberShip_customer_records</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBERSHIP_CUSTOMER_RECORDS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매(구매) 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 판매 번호를 통해 해당 판매 정보 조회 가능</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용한 포인트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USED_POINT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 포인트를 사용하지 않았으면 0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +781,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -726,6 +964,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -733,7 +1065,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -765,11 +1097,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -780,8 +1121,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -792,16 +1139,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1118,11 +1498,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFB0DFE-D17B-4A38-A801-C4E0875195B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5BA791-22E2-45EB-9919-50DE9D7B91D9}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:J6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1166,108 +1546,108 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="16" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="20"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="16" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" ht="27" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
@@ -1275,21 +1655,24 @@
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
@@ -1297,45 +1680,39 @@
         <v>3</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
+      <c r="G10" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
@@ -1347,10 +1724,10 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
@@ -1362,10 +1739,10 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
@@ -1377,10 +1754,10 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
@@ -1392,10 +1769,10 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
@@ -1407,10 +1784,10 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
@@ -1422,10 +1799,10 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="8">
@@ -1437,10 +1814,10 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
@@ -1452,10 +1829,10 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="8">
@@ -1467,10 +1844,10 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="8">
@@ -1482,10 +1859,10 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="8">
@@ -1497,10 +1874,10 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="8">
@@ -1512,10 +1889,10 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="8">
@@ -1527,10 +1904,10 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="8">
@@ -1542,10 +1919,10 @@
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="8">
@@ -1557,10 +1934,10 @@
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="8">
@@ -1572,10 +1949,10 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="8">
@@ -1587,10 +1964,10 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="8">
@@ -1602,10 +1979,10 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="8">
@@ -1617,10 +1994,10 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="8">
@@ -1632,10 +2009,10 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="8">
@@ -1647,10 +2024,10 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="8">
@@ -1662,10 +2039,10 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="8">
@@ -1677,10 +2054,10 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="8">
@@ -1692,10 +2069,10 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="8">
@@ -1707,10 +2084,10 @@
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="8">
@@ -1722,19 +2099,21 @@
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B38" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="43">
     <mergeCell ref="G35:J35"/>
     <mergeCell ref="G36:J36"/>
     <mergeCell ref="G37:J37"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:J8"/>
     <mergeCell ref="G29:J29"/>
     <mergeCell ref="G30:J30"/>
     <mergeCell ref="G31:J31"/>
@@ -1762,7 +2141,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="B1:I2"/>
@@ -1780,12 +2158,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6105071E-28A0-47F4-B07D-8D03B2F631DA}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141A7512-D431-462C-A6A3-3DDF3FE6DA10}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:J7"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1829,97 +2207,97 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="16" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="20"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="16" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" ht="27" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>33</v>
@@ -1927,10 +2305,729 @@
       <c r="F8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <f>SUM(A8,1)</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A10" s="8">
+        <f t="shared" ref="A10:A37" si="0">SUM(A9,1)</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A11" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A14" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="8">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="8">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="8">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B38" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930609E5-B52E-4766-B6B4-C93504D4A857}">
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="27" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
@@ -1938,44 +3035,44 @@
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" ht="39.6" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <f t="shared" ref="A10:A37" si="0">SUM(A9,1)</f>
         <v>3</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
@@ -1983,52 +3080,74 @@
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G11" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="B12" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G12" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="B13" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
+      <c r="G13" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
@@ -2040,10 +3159,10 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
@@ -2055,10 +3174,10 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
@@ -2070,10 +3189,10 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
@@ -2085,10 +3204,10 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="8">
@@ -2100,10 +3219,10 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
@@ -2115,10 +3234,10 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="8">
@@ -2130,10 +3249,10 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="8">
@@ -2145,10 +3264,10 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="8">
@@ -2160,10 +3279,10 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="8">
@@ -2175,10 +3294,10 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="8">
@@ -2190,10 +3309,10 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="8">
@@ -2205,10 +3324,10 @@
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="8">
@@ -2220,10 +3339,10 @@
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="8">
@@ -2235,10 +3354,10 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="8">
@@ -2250,10 +3369,10 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="8">
@@ -2265,10 +3384,10 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="8">
@@ -2280,10 +3399,10 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="8">
@@ -2295,10 +3414,10 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="8">
@@ -2310,10 +3429,10 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="8">
@@ -2325,10 +3444,10 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="8">
@@ -2340,10 +3459,10 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="8">
@@ -2355,10 +3474,10 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="8">
@@ -2370,10 +3489,10 @@
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="8">
@@ -2385,10 +3504,10 @@
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B38" s="9"/>
@@ -2444,11 +3563,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C2582E-94D0-4600-B70F-7DA48EDBD766}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E16E64-70BF-4949-AC13-FA8DBB0C4AD0}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:J14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2492,97 +3611,97 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="16" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="20" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="20"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="16" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" ht="27" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>33</v>
@@ -2590,156 +3709,129 @@
       <c r="F8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <f>SUM(A8,1)</f>
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>66</v>
+        <v>131</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G9" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <f t="shared" ref="A10:A37" si="0">SUM(A9,1)</f>
         <v>3</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G10" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="G11" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="10" t="b">
-        <v>1</v>
-      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="10" t="b">
-        <v>1</v>
-      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
@@ -2751,10 +3843,10 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
@@ -2766,10 +3858,10 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
@@ -2781,10 +3873,10 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="8">
@@ -2796,10 +3888,10 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
@@ -2811,10 +3903,10 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="8">
@@ -2826,10 +3918,10 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="8">
@@ -2841,10 +3933,10 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="8">
@@ -2856,10 +3948,10 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="8">
@@ -2871,10 +3963,10 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="8">
@@ -2886,10 +3978,10 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="8">
@@ -2901,10 +3993,10 @@
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="8">
@@ -2916,10 +4008,10 @@
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="8">
@@ -2931,10 +4023,10 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="8">
@@ -2946,10 +4038,10 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="8">
@@ -2961,10 +4053,10 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="8">
@@ -2976,10 +4068,10 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="8">
@@ -2991,10 +4083,10 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="8">
@@ -3006,10 +4098,10 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="8">
@@ -3021,10 +4113,10 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="8">
@@ -3036,10 +4128,10 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="8">
@@ -3051,10 +4143,10 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="8">
@@ -3066,10 +4158,10 @@
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="8">
@@ -3081,10 +4173,10 @@
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B38" s="9"/>
@@ -3140,11 +4232,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE51EB42-2843-4137-B03D-4B7C06449F1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFB0DFE-D17B-4A38-A801-C4E0875195B3}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3188,58 +4280,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="16" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="20" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="20"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="16" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
@@ -3260,25 +4352,25 @@
       <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" ht="27" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>33</v>
@@ -3286,10 +4378,10 @@
       <c r="F8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
@@ -3297,22 +4389,21 @@
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>35</v>
+        <v>95</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
@@ -3320,45 +4411,45 @@
         <v>3</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
@@ -3366,49 +4457,39 @@
         <v>5</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="10"/>
-      <c r="G12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="G12" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="10" t="b">
-        <v>1</v>
-      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
@@ -3420,10 +4501,10 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
@@ -3435,10 +4516,10 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
@@ -3450,10 +4531,10 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
@@ -3465,10 +4546,10 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="8">
@@ -3480,10 +4561,10 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
@@ -3495,10 +4576,10 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="8">
@@ -3510,10 +4591,10 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="8">
@@ -3525,10 +4606,10 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="8">
@@ -3540,10 +4621,10 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="8">
@@ -3555,10 +4636,10 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="8">
@@ -3570,10 +4651,10 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="8">
@@ -3585,10 +4666,10 @@
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="8">
@@ -3600,10 +4681,10 @@
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="8">
@@ -3615,10 +4696,10 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="8">
@@ -3630,10 +4711,10 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="8">
@@ -3645,10 +4726,10 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="8">
@@ -3660,10 +4741,10 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="8">
@@ -3675,10 +4756,10 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="8">
@@ -3690,10 +4771,10 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="8">
@@ -3705,10 +4786,10 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="8">
@@ -3720,10 +4801,10 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="8">
@@ -3735,10 +4816,10 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="8">
@@ -3750,10 +4831,10 @@
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="8">
@@ -3765,18 +4846,3400 @@
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G35:J35"/>
     <mergeCell ref="G36:J36"/>
     <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6105071E-28A0-47F4-B07D-8D03B2F631DA}">
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="27" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <f>SUM(A8,1)</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A10" s="8">
+        <f t="shared" ref="A10:A37" si="0">SUM(A9,1)</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A11" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="8">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="8">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="8">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B38" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C2582E-94D0-4600-B70F-7DA48EDBD766}">
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="27" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <f>SUM(A8,1)</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="8">
+        <f t="shared" ref="A10:A37" si="0">SUM(A9,1)</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A14" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="8">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="8">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="8">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B38" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE51EB42-2843-4137-B03D-4B7C06449F1E}">
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="27" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <f>SUM(A8,1)</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A10" s="8">
+        <f t="shared" ref="A10:A37" si="0">SUM(A9,1)</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A11" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="8">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="8">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="8">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B38" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G18:J18"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDEE289-220A-4760-93F2-E3C5BFA6119F}">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <f>SUM(A8,1)</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A10" s="8">
+        <f t="shared" ref="A10:A37" si="0">SUM(A9,1)</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="8">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="8">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="8">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B39" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C640122D-9D6A-43AA-9021-D711FC93026D}">
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <f>SUM(A8,1)</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="8">
+        <f t="shared" ref="A10:A37" si="0">SUM(A9,1)</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="8">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="8">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="8">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B38" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G30:J30"/>
     <mergeCell ref="G31:J31"/>
@@ -3821,721 +8284,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141A7512-D431-462C-A6A3-3DDF3FE6DA10}">
-  <dimension ref="A1:J38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" ht="27" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" ht="39.6" x14ac:dyDescent="0.4">
-      <c r="A9" s="8">
-        <f>SUM(A8,1)</f>
-        <v>2</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A10" s="8">
-        <f t="shared" ref="A10:A37" si="0">SUM(A9,1)</f>
-        <v>3</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A11" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A12" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A13" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A14" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="8">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="8">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="8">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="8">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="8">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="8">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="8">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="8">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="8">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="8">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="8">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="8">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="8">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="8">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="8">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="8">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="8">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="12"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="8">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="12"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="8">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B38" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G36:J36"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>